--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Reln-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Reln-Itga3.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H2">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I2">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J2">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N2">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O2">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P2">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q2">
-        <v>0.179671306655</v>
+        <v>4.3215751623555</v>
       </c>
       <c r="R2">
-        <v>0.71868522662</v>
+        <v>17.286300649422</v>
       </c>
       <c r="S2">
-        <v>0.0007685320673557432</v>
+        <v>0.0121843168039906</v>
       </c>
       <c r="T2">
-        <v>0.0006409749960237625</v>
+        <v>0.01192011189933633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H3">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I3">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J3">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.536709</v>
       </c>
       <c r="O3">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P3">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q3">
-        <v>0.006602214100333334</v>
+        <v>0.121432281889</v>
       </c>
       <c r="R3">
-        <v>0.039613284602</v>
+        <v>0.728593691334</v>
       </c>
       <c r="S3">
-        <v>2.824053181400522E-05</v>
+        <v>0.0003423680804294094</v>
       </c>
       <c r="T3">
-        <v>3.532996644396103E-05</v>
+        <v>0.0005024162489122385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H4">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I4">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J4">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N4">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O4">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P4">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q4">
-        <v>0.002194489732666666</v>
+        <v>0.003825564652</v>
       </c>
       <c r="R4">
-        <v>0.013166938396</v>
+        <v>0.022953387912</v>
       </c>
       <c r="S4">
-        <v>9.386783913558918E-06</v>
+        <v>1.07858569903271E-05</v>
       </c>
       <c r="T4">
-        <v>1.174321938648065E-05</v>
+        <v>1.582796446323884E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H5">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I5">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J5">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N5">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O5">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P5">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q5">
-        <v>0.06433564972399999</v>
+        <v>1.632175910244</v>
       </c>
       <c r="R5">
-        <v>0.257342598896</v>
+        <v>6.528703640976</v>
       </c>
       <c r="S5">
-        <v>0.000275191463832351</v>
+        <v>0.004601782364792914</v>
       </c>
       <c r="T5">
-        <v>0.0002295165744255998</v>
+        <v>0.004501997248360977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H6">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I6">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J6">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N6">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O6">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P6">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q6">
-        <v>0.11878386399</v>
+        <v>0.010771668594</v>
       </c>
       <c r="R6">
-        <v>0.7127031839399999</v>
+        <v>0.064630011564</v>
       </c>
       <c r="S6">
-        <v>0.0005080900799370776</v>
+        <v>3.036981140583839E-05</v>
       </c>
       <c r="T6">
-        <v>0.0006356397816058176</v>
+        <v>4.456690795344003E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H7">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I7">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J7">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N7">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O7">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P7">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q7">
-        <v>0.002502515350999999</v>
+        <v>0.009452887125</v>
       </c>
       <c r="R7">
-        <v>0.015015092106</v>
+        <v>0.05671732275</v>
       </c>
       <c r="S7">
-        <v>1.070434301447204E-05</v>
+        <v>2.665161824481284E-05</v>
       </c>
       <c r="T7">
-        <v>1.339153532931679E-05</v>
+        <v>3.911055624462831E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.797511</v>
       </c>
       <c r="I8">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J8">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N8">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O8">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P8">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q8">
-        <v>3.705739867115</v>
+        <v>4.8461150682945</v>
       </c>
       <c r="R8">
-        <v>22.23443920269</v>
+        <v>29.076690409767</v>
       </c>
       <c r="S8">
-        <v>0.0158510558763014</v>
+        <v>0.01366321284309423</v>
       </c>
       <c r="T8">
-        <v>0.01983026650841442</v>
+        <v>0.0200504093024884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.797511</v>
       </c>
       <c r="I9">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J9">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.536709</v>
       </c>
       <c r="O9">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P9">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q9">
         <v>0.1361713701443333</v>
@@ -1013,10 +1013,10 @@
         <v>1.225542331299</v>
       </c>
       <c r="S9">
-        <v>0.0005824639813670346</v>
+        <v>0.000383923697064126</v>
       </c>
       <c r="T9">
-        <v>0.00109302649036736</v>
+        <v>0.0008450970524422795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>0.797511</v>
       </c>
       <c r="I10">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J10">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N10">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O10">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P10">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q10">
-        <v>0.04526158484466666</v>
+        <v>0.004289900281333334</v>
       </c>
       <c r="R10">
-        <v>0.4073542636019999</v>
+        <v>0.038609102532</v>
       </c>
       <c r="S10">
-        <v>0.0001936034196003385</v>
+        <v>1.20950121475624E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003633077289212341</v>
+        <v>2.662367338437898E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.797511</v>
       </c>
       <c r="I11">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J11">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N11">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O11">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P11">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q11">
-        <v>1.326929638892</v>
+        <v>1.830284554956</v>
       </c>
       <c r="R11">
-        <v>7.961577833351999</v>
+        <v>10.981707329736</v>
       </c>
       <c r="S11">
-        <v>0.005675853298999201</v>
+        <v>0.005160332985364456</v>
       </c>
       <c r="T11">
-        <v>0.007100705748573768</v>
+        <v>0.00757265437360029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>0.797511</v>
       </c>
       <c r="I12">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J12">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N12">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O12">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P12">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q12">
-        <v>2.44992986667</v>
+        <v>0.012079101606</v>
       </c>
       <c r="R12">
-        <v>22.04936880003</v>
+        <v>0.108711914454</v>
       </c>
       <c r="S12">
-        <v>0.0104794121018103</v>
+        <v>3.405600854917832E-05</v>
       </c>
       <c r="T12">
-        <v>0.01966520745861732</v>
+        <v>7.49644595083499E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>0.797511</v>
       </c>
       <c r="I13">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J13">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N13">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O13">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P13">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q13">
-        <v>0.05161464608299999</v>
+        <v>0.010600250375</v>
       </c>
       <c r="R13">
-        <v>0.4645318147469999</v>
+        <v>0.095402253375</v>
       </c>
       <c r="S13">
-        <v>0.0002207782166140278</v>
+        <v>2.988651219020392E-05</v>
       </c>
       <c r="T13">
-        <v>0.0004143027671665283</v>
+        <v>6.578651839639625E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H14">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I14">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J14">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N14">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O14">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P14">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q14">
-        <v>107.29548333416</v>
+        <v>241.9019028966802</v>
       </c>
       <c r="R14">
-        <v>429.18193333664</v>
+        <v>967.607611586721</v>
       </c>
       <c r="S14">
-        <v>0.4589492955771352</v>
+        <v>0.6820220196690551</v>
       </c>
       <c r="T14">
-        <v>0.3827752092633152</v>
+        <v>0.6672330441706703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H15">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I15">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J15">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.536709</v>
       </c>
       <c r="O15">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P15">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q15">
-        <v>3.942687155557334</v>
+        <v>6.797220679606168</v>
       </c>
       <c r="R15">
-        <v>23.656122933344</v>
+        <v>40.783324077637</v>
       </c>
       <c r="S15">
-        <v>0.016864582147308</v>
+        <v>0.01916419061003131</v>
       </c>
       <c r="T15">
-        <v>0.02109822595693223</v>
+        <v>0.02812295102877235</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H16">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I16">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J16">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N16">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O16">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P16">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q16">
-        <v>1.310497713418667</v>
+        <v>0.2141375156526667</v>
       </c>
       <c r="R16">
-        <v>7.862986280512</v>
+        <v>1.284825093916</v>
       </c>
       <c r="S16">
-        <v>0.005605566830392918</v>
+        <v>0.0006037426707417187</v>
       </c>
       <c r="T16">
-        <v>0.007012774735316679</v>
+        <v>0.0008859766586939538</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H17">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I17">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J17">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N17">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O17">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P17">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q17">
-        <v>38.419738584128</v>
+        <v>91.361701166142</v>
       </c>
       <c r="R17">
-        <v>153.678954336512</v>
+        <v>365.446804664568</v>
       </c>
       <c r="S17">
-        <v>0.1643378771548853</v>
+        <v>0.2575866134312578</v>
       </c>
       <c r="T17">
-        <v>0.137061906236825</v>
+        <v>0.2520011015197871</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H18">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I18">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J18">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N18">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O18">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P18">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q18">
-        <v>70.93493299728</v>
+        <v>0.602948469567</v>
       </c>
       <c r="R18">
-        <v>425.60959798368</v>
+        <v>3.617690817402</v>
       </c>
       <c r="S18">
-        <v>0.3034194592285147</v>
+        <v>0.001699962373367897</v>
       </c>
       <c r="T18">
-        <v>0.3795891445525821</v>
+        <v>0.0024946505464184</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H19">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I19">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J19">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N19">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O19">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P19">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q19">
-        <v>1.494443376272</v>
+        <v>0.5291291479375</v>
       </c>
       <c r="R19">
-        <v>8.966660257631998</v>
+        <v>3.174774887625</v>
       </c>
       <c r="S19">
-        <v>0.006392382172172816</v>
+        <v>0.001491835019984262</v>
       </c>
       <c r="T19">
-        <v>0.007997110292655289</v>
+        <v>0.002189229071227469</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H20">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I20">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J20">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N20">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O20">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P20">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q20">
-        <v>1.103477441568333</v>
+        <v>0.239209447617</v>
       </c>
       <c r="R20">
-        <v>6.620864649410001</v>
+        <v>1.435256685702</v>
       </c>
       <c r="S20">
-        <v>0.004720051382925352</v>
+        <v>0.0006744308690177912</v>
       </c>
       <c r="T20">
-        <v>0.00590496163708306</v>
+        <v>0.0009897097502125465</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H21">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I21">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J21">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.536709</v>
       </c>
       <c r="O21">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P21">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q21">
-        <v>0.04054845740122223</v>
+        <v>0.006721565166000001</v>
       </c>
       <c r="R21">
-        <v>0.3649361166110001</v>
+        <v>0.060494086494</v>
       </c>
       <c r="S21">
-        <v>0.0001734433303503801</v>
+        <v>1.895088626818487E-05</v>
       </c>
       <c r="T21">
-        <v>0.0003254761851635279</v>
+        <v>4.171489868659213E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H22">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I22">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J22">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N22">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O22">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P22">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q22">
-        <v>0.01347777761977778</v>
+        <v>0.000211754088</v>
       </c>
       <c r="R22">
-        <v>0.121299998578</v>
+        <v>0.001905786792</v>
       </c>
       <c r="S22">
-        <v>5.765029759247056E-05</v>
+        <v>5.970227974296799E-07</v>
       </c>
       <c r="T22">
-        <v>0.0001081840327675553</v>
+        <v>1.314173129210083E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H23">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I23">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J23">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N23">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O23">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P23">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q23">
-        <v>0.3951267427213334</v>
+        <v>0.090344812536</v>
       </c>
       <c r="R23">
-        <v>2.370760456328</v>
+        <v>0.542068875216</v>
       </c>
       <c r="S23">
-        <v>0.001690128368878964</v>
+        <v>0.0002547195816758104</v>
       </c>
       <c r="T23">
-        <v>0.002114414096439485</v>
+        <v>0.0003737943577845936</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H24">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I24">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J24">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N24">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O24">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P24">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q24">
-        <v>0.72952836363</v>
+        <v>0.000596237436</v>
       </c>
       <c r="R24">
-        <v>6.56575527267</v>
+        <v>0.005366136923999999</v>
       </c>
       <c r="S24">
-        <v>0.003120509066991938</v>
+        <v>1.681041180055139E-06</v>
       </c>
       <c r="T24">
-        <v>0.005855811145006129</v>
+        <v>3.700326281400134E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.013122</v>
+      </c>
+      <c r="H25">
+        <v>0.039366</v>
+      </c>
+      <c r="I25">
+        <v>0.0009518546312983252</v>
+      </c>
+      <c r="J25">
+        <v>0.001413480799339442</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G25">
-        <v>0.07915966666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.237479</v>
-      </c>
-      <c r="I25">
-        <v>0.009827524725031546</v>
-      </c>
-      <c r="J25">
-        <v>0.01443221618709793</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
       <c r="M25">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N25">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O25">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P25">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q25">
-        <v>0.01536956172033333</v>
+        <v>0.00052323975</v>
       </c>
       <c r="R25">
-        <v>0.138326055483</v>
+        <v>0.00470915775</v>
       </c>
       <c r="S25">
-        <v>6.574227829244075E-05</v>
+        <v>1.475230359054066E-06</v>
       </c>
       <c r="T25">
-        <v>0.000123369090638173</v>
+        <v>3.247293245099484E-06</v>
       </c>
     </row>
   </sheetData>
